--- a/rapporter_2025/Kostra 14 - Fylkesveg antall tunnel.xlsx
+++ b/rapporter_2025/Kostra 14 - Fylkesveg antall tunnel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54C8D8-22CE-4A4D-93BE-64359CF687BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128A6C0-3DBF-44C9-88C1-2B8A01661811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43650" yWindow="1560" windowWidth="23445" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28905" yWindow="4605" windowWidth="15450" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fv antall tunnel" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fylke</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>Filter</t>
-  </si>
-  <si>
-    <t>trafikantgruppe</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>tidspunkt</t>
@@ -72,7 +66,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -425,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +434,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +514,7 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,15 +548,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,14 +588,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
